--- a/data/CS1_2/case18_2/case18_2_2030.xlsx
+++ b/data/CS1_2/case18_2/case18_2_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D92392-2FD4-44AF-B384-334695FE4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0027530-006C-408F-A936-29AE885A799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13723,372 +13723,372 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>19.246375817666848</v>
+            <v>29.825060616294952</v>
           </cell>
           <cell r="C2">
-            <v>19.750923081046427</v>
+            <v>30.606930037148125</v>
           </cell>
           <cell r="D2">
-            <v>23.52451615507286</v>
+            <v>36.45466174727914</v>
           </cell>
           <cell r="E2">
-            <v>25.595262215193216</v>
+            <v>39.663584162030702</v>
           </cell>
           <cell r="F2">
-            <v>26.28901470234014</v>
+            <v>40.738654615703815</v>
           </cell>
           <cell r="G2">
-            <v>21.527349904195361</v>
+            <v>33.359761956402004</v>
           </cell>
           <cell r="H2">
-            <v>23.261731122062663</v>
+            <v>36.047438090584784</v>
           </cell>
           <cell r="I2">
-            <v>12.992092032024154</v>
+            <v>20.133137586969177</v>
           </cell>
           <cell r="J2">
-            <v>5.8758733381080113</v>
+            <v>9.1055209636858976</v>
           </cell>
           <cell r="K2">
-            <v>4.2150719294835639</v>
+            <v>6.53186745337754</v>
           </cell>
           <cell r="L2">
-            <v>3.6684790608223543</v>
+            <v>5.6848422474532718</v>
           </cell>
           <cell r="M2">
-            <v>5.4028602786896558</v>
+            <v>8.3725183816360484</v>
           </cell>
           <cell r="N2">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="O2">
-            <v>4.5093911664549857</v>
+            <v>6.9879579488752244</v>
           </cell>
           <cell r="P2">
-            <v>4.625016580979473</v>
+            <v>7.1671363578207439</v>
           </cell>
           <cell r="Q2">
-            <v>4.7196191928631439</v>
+            <v>7.3137368742307132</v>
           </cell>
           <cell r="R2">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="S2">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="T2">
-            <v>4.8772902126692612</v>
+            <v>7.5580710682473287</v>
           </cell>
           <cell r="U2">
-            <v>5.6656453116998531</v>
+            <v>8.7797420383304097</v>
           </cell>
           <cell r="V2">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="W2">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="X2">
-            <v>6.2963293909243276</v>
+            <v>9.7570788143968752</v>
           </cell>
           <cell r="Y2">
-            <v>10.038388260989537</v>
+            <v>15.555943685724568</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>25.658330623115663</v>
+            <v>39.76131783963735</v>
           </cell>
           <cell r="C3">
-            <v>19.330467028230114</v>
+            <v>29.955372186437152</v>
           </cell>
           <cell r="D3">
-            <v>17.375346382634245</v>
+            <v>26.925628180631112</v>
           </cell>
           <cell r="E3">
-            <v>18.321372501470954</v>
+            <v>28.391633344730806</v>
           </cell>
           <cell r="F3">
-            <v>17.438414790556692</v>
+            <v>27.023361858237756</v>
           </cell>
           <cell r="G3">
-            <v>25.889581452164634</v>
+            <v>40.119674657528385</v>
           </cell>
           <cell r="H3">
-            <v>26.656913748554413</v>
+            <v>41.308767735075918</v>
           </cell>
           <cell r="I3">
-            <v>12.718795597693548</v>
+            <v>19.709624984007043</v>
           </cell>
           <cell r="J3">
-            <v>8.9557139249875224</v>
+            <v>13.878182220143801</v>
           </cell>
           <cell r="K3">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="L3">
-            <v>7.2213327071202214</v>
+            <v>11.190506085961024</v>
           </cell>
           <cell r="M3">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="N3">
-            <v>5.2977462654855776</v>
+            <v>8.2096289189583054</v>
           </cell>
           <cell r="O3">
-            <v>7.7153685691793923</v>
+            <v>11.956086560546421</v>
           </cell>
           <cell r="P3">
-            <v>10.952880175865022</v>
+            <v>16.973082011020942</v>
           </cell>
           <cell r="Q3">
-            <v>12.350896551479273</v>
+            <v>19.139511864634937</v>
           </cell>
           <cell r="R3">
-            <v>10.910834570583392</v>
+            <v>16.907926225949844</v>
           </cell>
           <cell r="S3">
-            <v>4.5093911664549857</v>
+            <v>6.9879579488752244</v>
           </cell>
           <cell r="T3">
-            <v>6.8849678648671686</v>
+            <v>10.669259805392242</v>
           </cell>
           <cell r="U3">
-            <v>6.2542837856426958</v>
+            <v>9.6919230293257783</v>
           </cell>
           <cell r="V3">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="W3">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="X3">
-            <v>7.2949125163630768</v>
+            <v>11.304528709835445</v>
           </cell>
           <cell r="Y3">
-            <v>22.809740865285125</v>
+            <v>35.347013401070484</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>24.512587879191205</v>
+            <v>37.985822696449937</v>
           </cell>
           <cell r="C4">
-            <v>21.548372706836176</v>
+            <v>33.392339848937553</v>
           </cell>
           <cell r="D4">
-            <v>15.893238796456732</v>
+            <v>24.628886756874916</v>
           </cell>
           <cell r="E4">
-            <v>16.639548290205692</v>
+            <v>25.785401941886899</v>
           </cell>
           <cell r="F4">
-            <v>16.786707908691405</v>
+            <v>26.013447189635745</v>
           </cell>
           <cell r="G4">
-            <v>17.480460395838321</v>
+            <v>27.088517643308851</v>
           </cell>
           <cell r="H4">
-            <v>14.600336434046563</v>
+            <v>22.625346365938665</v>
           </cell>
           <cell r="I4">
-            <v>5.9704759499916822</v>
+            <v>9.2521214800958678</v>
           </cell>
           <cell r="J4">
-            <v>2.0812574614407624</v>
+            <v>3.2252113610193343</v>
           </cell>
           <cell r="K4">
-            <v>1.0406287307203812</v>
+            <v>1.6126056805096671</v>
           </cell>
           <cell r="L4">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="M4">
-            <v>2.7224529419856438</v>
+            <v>4.2188370833535735</v>
           </cell>
           <cell r="N4">
-            <v>5.4554172852916958</v>
+            <v>8.4539631129749218</v>
           </cell>
           <cell r="O4">
-            <v>4.9613814232325248</v>
+            <v>7.6883826383895242</v>
           </cell>
           <cell r="P4">
-            <v>5.5605312984957749</v>
+            <v>8.6168525756526666</v>
           </cell>
           <cell r="Q4">
-            <v>5.0664954364366039</v>
+            <v>7.851272101067269</v>
           </cell>
           <cell r="R4">
-            <v>5.0664954364366039</v>
+            <v>7.851272101067269</v>
           </cell>
           <cell r="S4">
-            <v>3.1954660014039993</v>
+            <v>4.9518396654034227</v>
           </cell>
           <cell r="T4">
-            <v>5.7707593249039331</v>
+            <v>8.9426315010081545</v>
           </cell>
           <cell r="U4">
-            <v>5.3503032720876167</v>
+            <v>8.2910736502971769</v>
           </cell>
           <cell r="V4">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="W4">
-            <v>3.6684790608223543</v>
+            <v>5.6848422474532718</v>
           </cell>
           <cell r="X4">
-            <v>8.5037236682099842</v>
+            <v>13.177757530629503</v>
           </cell>
           <cell r="Y4">
-            <v>15.619942362126126</v>
+            <v>24.205374153912782</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="C5">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="D5">
-            <v>3.6684790608223543</v>
+            <v>5.6848422474532718</v>
           </cell>
           <cell r="E5">
-            <v>3.6579676595019461</v>
+            <v>5.6685533011854963</v>
           </cell>
           <cell r="F5">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="G5">
-            <v>6.7167854437406422</v>
+            <v>10.408636665107851</v>
           </cell>
           <cell r="H5">
-            <v>7.6312773586161287</v>
+            <v>11.825774990404225</v>
           </cell>
           <cell r="I5">
-            <v>4.8247332060672221</v>
+            <v>7.4766263369084562</v>
           </cell>
           <cell r="J5">
-            <v>5.4554172852916958</v>
+            <v>8.4539631129749218</v>
           </cell>
           <cell r="K5">
-            <v>1.2508567571285389</v>
+            <v>1.9383846058651555</v>
           </cell>
           <cell r="L5">
-            <v>2.8170555538693152</v>
+            <v>4.3654375997635437</v>
           </cell>
           <cell r="M5">
-            <v>3.1429089948019597</v>
+            <v>4.8703949340645503</v>
           </cell>
           <cell r="N5">
-            <v>3.3531370212101175</v>
+            <v>5.1961738594200382</v>
           </cell>
           <cell r="O5">
-            <v>3.8681956859101043</v>
+            <v>5.9943322265409851</v>
           </cell>
           <cell r="P5">
-            <v>4.2045605281631566</v>
+            <v>6.5155785071097663</v>
           </cell>
           <cell r="Q5">
-            <v>4.2150719294835639</v>
+            <v>6.53186745337754</v>
           </cell>
           <cell r="R5">
-            <v>4.2045605281631566</v>
+            <v>6.5155785071097663</v>
           </cell>
           <cell r="S5">
-            <v>2.3965995010529992</v>
+            <v>3.7138797490525666</v>
           </cell>
           <cell r="T5">
-            <v>1.0406287307203812</v>
+            <v>1.6126056805096671</v>
           </cell>
           <cell r="U5">
-            <v>2.4071109023734074</v>
+            <v>3.7301686953203412</v>
           </cell>
           <cell r="V5">
-            <v>1.0406287307203812</v>
+            <v>1.6126056805096671</v>
           </cell>
           <cell r="W5">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="X5">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="Y5">
-            <v>7.4210493322079714</v>
+            <v>11.499996065048737</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>17.869382244693416</v>
+            <v>27.691208655216506</v>
           </cell>
           <cell r="C6">
-            <v>22.862297871887165</v>
+            <v>35.428458132409354</v>
           </cell>
           <cell r="D6">
-            <v>21.327633279107612</v>
+            <v>33.050271977314289</v>
           </cell>
           <cell r="E6">
-            <v>22.420819016430031</v>
+            <v>34.744322389162825</v>
           </cell>
           <cell r="F6">
-            <v>22.126499779458612</v>
+            <v>34.288231893665149</v>
           </cell>
           <cell r="G6">
-            <v>19.551206455958681</v>
+            <v>30.297440058060417</v>
           </cell>
           <cell r="H6">
-            <v>22.98843468773206</v>
+            <v>35.62392548762265</v>
           </cell>
           <cell r="I6">
-            <v>8.2724728391610114</v>
+            <v>12.819400712738465</v>
           </cell>
           <cell r="J6">
-            <v>4.1940491268427493</v>
+            <v>6.4992895608419925</v>
           </cell>
           <cell r="K6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="L6">
-            <v>1.5136417901387362</v>
+            <v>2.3456082625595158</v>
           </cell>
           <cell r="M6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="N6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="O6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="P6">
-            <v>2.1863714746448415</v>
+            <v>3.3881008236970787</v>
           </cell>
           <cell r="Q6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="R6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="S6">
-            <v>2.0917688627611706</v>
+            <v>3.2415003072871089</v>
           </cell>
           <cell r="T6">
-            <v>2.6488731327427888</v>
+            <v>4.1048144594791527</v>
           </cell>
           <cell r="U6">
-            <v>2.1968828759652492</v>
+            <v>3.4043897699648524</v>
           </cell>
           <cell r="V6">
-            <v>1.5136417901387362</v>
+            <v>2.3456082625595158</v>
           </cell>
           <cell r="W6">
-            <v>1.8815408363530126</v>
+            <v>2.9157213819316206</v>
           </cell>
           <cell r="X6">
-            <v>2.6383617314223806</v>
+            <v>4.088525513211378</v>
           </cell>
           <cell r="Y6">
-            <v>3.1534203961223675</v>
+            <v>4.8866838803323249</v>
           </cell>
         </row>
       </sheetData>
@@ -14098,372 +14098,372 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>6.853433660905945</v>
+            <v>10.620392966588918</v>
           </cell>
           <cell r="C2">
-            <v>11.100039794350733</v>
+            <v>17.201127258769784</v>
           </cell>
           <cell r="D2">
-            <v>6.2227495816814713</v>
+            <v>9.6430561905224543</v>
           </cell>
           <cell r="E2">
-            <v>6.464511812050854</v>
+            <v>10.017701954681266</v>
           </cell>
           <cell r="F2">
-            <v>7.1372414965569586</v>
+            <v>11.060194515818829</v>
           </cell>
           <cell r="G2">
-            <v>6.9900818780712486</v>
+            <v>10.832149268069987</v>
           </cell>
           <cell r="H2">
-            <v>10.511401320407892</v>
+            <v>16.288946267774417</v>
           </cell>
           <cell r="I2">
-            <v>10.711117945495641</v>
+            <v>16.598436246862128</v>
           </cell>
           <cell r="J2">
-            <v>10.259127688718102</v>
+            <v>15.898011557347829</v>
           </cell>
           <cell r="K2">
-            <v>8.4616780629283532</v>
+            <v>13.112601745558406</v>
           </cell>
           <cell r="L2">
-            <v>9.1028735434732351</v>
+            <v>14.106227467892644</v>
           </cell>
           <cell r="M2">
-            <v>10.511401320407892</v>
+            <v>16.288946267774417</v>
           </cell>
           <cell r="N2">
-            <v>8.1988930299181551</v>
+            <v>12.705378088864045</v>
           </cell>
           <cell r="O2">
-            <v>6.1176355684773931</v>
+            <v>9.4801667278447113</v>
           </cell>
           <cell r="P2">
-            <v>6.8954792661875768</v>
+            <v>10.685548751660017</v>
           </cell>
           <cell r="Q2">
-            <v>8.4511666616079442</v>
+            <v>13.096312799290629</v>
           </cell>
           <cell r="R2">
-            <v>8.0201992074712205</v>
+            <v>12.428466002311879</v>
           </cell>
           <cell r="S2">
-            <v>8.8505999117834442</v>
+            <v>13.715292757466058</v>
           </cell>
           <cell r="T2">
-            <v>4.8983130153100776</v>
+            <v>7.590648960782878</v>
           </cell>
           <cell r="U2">
-            <v>4.5409253704162094</v>
+            <v>7.0368247876785484</v>
           </cell>
           <cell r="V2">
-            <v>2.9537037710346175</v>
+            <v>4.5771939012446108</v>
           </cell>
           <cell r="W2">
-            <v>2.9537037710346175</v>
+            <v>4.5771939012446108</v>
           </cell>
           <cell r="X2">
-            <v>3.5002966396958279</v>
+            <v>5.4242191071688808</v>
           </cell>
           <cell r="Y2">
-            <v>9.4287269844058788</v>
+            <v>14.611184802193652</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>11.846349288099693</v>
+            <v>18.357642443781767</v>
           </cell>
           <cell r="C3">
-            <v>12.865955216179259</v>
+            <v>19.937670231755884</v>
           </cell>
           <cell r="D3">
-            <v>8.7980429051814042</v>
+            <v>13.633848026127184</v>
           </cell>
           <cell r="E3">
-            <v>8.9767367276283387</v>
+            <v>13.91076011267935</v>
           </cell>
           <cell r="F3">
-            <v>9.2920787672405751</v>
+            <v>14.399428500712583</v>
           </cell>
           <cell r="G3">
-            <v>9.386681379124246</v>
+            <v>14.546029017122553</v>
           </cell>
           <cell r="H3">
-            <v>18.84694256749135</v>
+            <v>29.206080658119525</v>
           </cell>
           <cell r="I3">
-            <v>16.39778605983631</v>
+            <v>25.410756177728089</v>
           </cell>
           <cell r="J3">
-            <v>10.385264504562997</v>
+            <v>16.093478912561125</v>
           </cell>
           <cell r="K3">
-            <v>10.122479471552801</v>
+            <v>15.686255255866763</v>
           </cell>
           <cell r="L3">
-            <v>8.1042904180344841</v>
+            <v>12.558777572454074</v>
           </cell>
           <cell r="M3">
-            <v>8.3775868523650896</v>
+            <v>12.982290175416209</v>
           </cell>
           <cell r="N3">
-            <v>9.544352398930366</v>
+            <v>14.790363211139169</v>
           </cell>
           <cell r="O3">
-            <v>7.4946291414508268</v>
+            <v>11.614018688923158</v>
           </cell>
           <cell r="P3">
-            <v>7.7784369771018405</v>
+            <v>12.053820238153069</v>
           </cell>
           <cell r="Q3">
-            <v>8.240938635199786</v>
+            <v>12.770533873935142</v>
           </cell>
           <cell r="R3">
-            <v>7.9886650035099969</v>
+            <v>12.379599163508555</v>
           </cell>
           <cell r="S3">
-            <v>5.9914987526324985</v>
+            <v>9.2846993726314171</v>
           </cell>
           <cell r="T3">
-            <v>5.0980296403978267</v>
+            <v>7.9001389398705912</v>
           </cell>
           <cell r="U3">
-            <v>4.4463227585325384</v>
+            <v>6.8902242712685782</v>
           </cell>
           <cell r="V3">
-            <v>2.5017135142570779</v>
+            <v>3.876769211730311</v>
           </cell>
           <cell r="W3">
-            <v>2.9431923697142093</v>
+            <v>4.5609049549768361</v>
           </cell>
           <cell r="X3">
-            <v>2.1968828759652492</v>
+            <v>3.4043897699648524</v>
           </cell>
           <cell r="Y3">
-            <v>12.96055782806293</v>
+            <v>20.084270748165853</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.1807039763998404</v>
+            <v>9.5779004054513557</v>
           </cell>
           <cell r="C4">
-            <v>9.4392383857262878</v>
+            <v>14.627473748461426</v>
           </cell>
           <cell r="D4">
-            <v>8.0307106087916296</v>
+            <v>12.444754948579654</v>
           </cell>
           <cell r="E4">
-            <v>8.1148018193548914</v>
+            <v>12.575066518721849</v>
           </cell>
           <cell r="F4">
-            <v>8.0307106087916296</v>
+            <v>12.444754948579654</v>
           </cell>
           <cell r="G4">
-            <v>8.1148018193548914</v>
+            <v>12.575066518721849</v>
           </cell>
           <cell r="H4">
-            <v>8.6508832866956951</v>
+            <v>13.405802778378344</v>
           </cell>
           <cell r="I4">
-            <v>7.5576975493732741</v>
+            <v>11.711752366529806</v>
           </cell>
           <cell r="J4">
-            <v>7.0636616873141032</v>
+            <v>10.946171891944408</v>
           </cell>
           <cell r="K4">
-            <v>6.8954792661875768</v>
+            <v>10.685548751660017</v>
           </cell>
           <cell r="L4">
-            <v>6.0440557592345376</v>
+            <v>9.3661441039702886</v>
           </cell>
           <cell r="M4">
-            <v>5.1926322522814985</v>
+            <v>8.0467394562805623</v>
           </cell>
           <cell r="N4">
-            <v>4.8457560087080385</v>
+            <v>7.5092042294440065</v>
           </cell>
           <cell r="O4">
-            <v>4.8457560087080385</v>
+            <v>7.5092042294440065</v>
           </cell>
           <cell r="P4">
-            <v>6.4224662067692222</v>
+            <v>9.9525461696101694</v>
           </cell>
           <cell r="Q4">
-            <v>4.8457560087080385</v>
+            <v>7.5092042294440065</v>
           </cell>
           <cell r="R4">
-            <v>4.8457560087080385</v>
+            <v>7.5092042294440065</v>
           </cell>
           <cell r="S4">
-            <v>4.8983130153100776</v>
+            <v>7.590648960782878</v>
           </cell>
           <cell r="T4">
-            <v>5.865361936787604</v>
+            <v>9.0892320174181247</v>
           </cell>
           <cell r="U4">
-            <v>5.8443391341467876</v>
+            <v>9.0566541248825736</v>
           </cell>
           <cell r="V4">
-            <v>5.3503032720876167</v>
+            <v>8.2910736502971769</v>
           </cell>
           <cell r="W4">
-            <v>4.5514367717366175</v>
+            <v>7.0531137339463221</v>
           </cell>
           <cell r="X4">
-            <v>4.8562674100284458</v>
+            <v>7.5254931757117802</v>
           </cell>
           <cell r="Y4">
-            <v>7.305423917683485</v>
+            <v>11.32081765610322</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>11.657144064332352</v>
+            <v>18.064441410961827</v>
           </cell>
           <cell r="C5">
-            <v>19.961151107454583</v>
+            <v>30.932708962503614</v>
           </cell>
           <cell r="D5">
-            <v>11.163108202273181</v>
+            <v>17.298860936376428</v>
           </cell>
           <cell r="E5">
-            <v>11.163108202273181</v>
+            <v>17.298860936376428</v>
           </cell>
           <cell r="F5">
-            <v>11.163108202273181</v>
+            <v>17.298860936376428</v>
           </cell>
           <cell r="G5">
-            <v>11.163108202273181</v>
+            <v>17.298860936376428</v>
           </cell>
           <cell r="H5">
-            <v>10.952880175865022</v>
+            <v>16.973082011020942</v>
           </cell>
           <cell r="I5">
-            <v>7.0636616873141032</v>
+            <v>10.946171891944408</v>
           </cell>
           <cell r="J5">
-            <v>7.3159353190038923</v>
+            <v>11.337106602370993</v>
           </cell>
           <cell r="K5">
-            <v>7.8415053850242868</v>
+            <v>12.151553915759713</v>
           </cell>
           <cell r="L5">
-            <v>11.015948583787472</v>
+            <v>17.070815688627587</v>
           </cell>
           <cell r="M5">
-            <v>9.8807172411834188</v>
+            <v>15.311609491707951</v>
           </cell>
           <cell r="N5">
-            <v>8.8926455170650769</v>
+            <v>13.780448542537156</v>
           </cell>
           <cell r="O5">
-            <v>9.0713393395120114</v>
+            <v>14.057360629089322</v>
           </cell>
           <cell r="P5">
-            <v>8.8926455170650769</v>
+            <v>13.780448542537156</v>
           </cell>
           <cell r="Q5">
-            <v>11.446916037924195</v>
+            <v>17.738662485606341</v>
           </cell>
           <cell r="R5">
-            <v>10.374753103242588</v>
+            <v>16.077189966293346</v>
           </cell>
           <cell r="S5">
-            <v>8.4721894642487605</v>
+            <v>13.128890691826181</v>
           </cell>
           <cell r="T5">
-            <v>8.4721894642487605</v>
+            <v>13.128890691826181</v>
           </cell>
           <cell r="U5">
-            <v>9.197476155356906</v>
+            <v>14.252827984302614</v>
           </cell>
           <cell r="V5">
-            <v>6.4855346146916686</v>
+            <v>10.050279847216814</v>
           </cell>
           <cell r="W5">
-            <v>6.9375248714692077</v>
+            <v>10.750704536731114</v>
           </cell>
           <cell r="X5">
-            <v>6.012521555273314</v>
+            <v>9.3172772651669646</v>
           </cell>
           <cell r="Y5">
-            <v>10.784697754738497</v>
+            <v>16.712458870736551</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>7.9676422008691823</v>
+            <v>12.347021270973007</v>
           </cell>
           <cell r="C6">
-            <v>9.933274247785457</v>
+            <v>15.393054223046821</v>
           </cell>
           <cell r="D6">
-            <v>6.6537170358181958</v>
+            <v>10.310902987501205</v>
           </cell>
           <cell r="E6">
-            <v>7.1477528978773659</v>
+            <v>11.076483462086602</v>
           </cell>
           <cell r="F6">
-            <v>7.1477528978773659</v>
+            <v>11.076483462086602</v>
           </cell>
           <cell r="G6">
-            <v>6.5696258252549322</v>
+            <v>10.180591417359009</v>
           </cell>
           <cell r="H6">
-            <v>8.1673588259569314</v>
+            <v>12.656511250060721</v>
           </cell>
           <cell r="I6">
-            <v>9.933274247785457</v>
+            <v>15.393054223046821</v>
           </cell>
           <cell r="J6">
-            <v>9.6915120174160769</v>
+            <v>15.018408458888013</v>
           </cell>
           <cell r="K6">
-            <v>9.0608279381916024</v>
+            <v>14.041071682821546</v>
           </cell>
           <cell r="L6">
-            <v>7.452583536169195</v>
+            <v>11.54886290385206</v>
           </cell>
           <cell r="M6">
-            <v>6.7588310490222741</v>
+            <v>10.47379245017895</v>
           </cell>
           <cell r="N6">
-            <v>6.1491697724386158</v>
+            <v>9.5290335666480335</v>
           </cell>
           <cell r="O6">
-            <v>6.7693424503426822</v>
+            <v>10.490081396446724</v>
           </cell>
           <cell r="P6">
-            <v>7.1372414965569586</v>
+            <v>11.060194515818829</v>
           </cell>
           <cell r="Q6">
-            <v>8.5562806748120241</v>
+            <v>13.259202261968376</v>
           </cell>
           <cell r="R6">
-            <v>8.9452025236671151</v>
+            <v>13.861893273876028</v>
           </cell>
           <cell r="S6">
-            <v>9.6389550108140369</v>
+            <v>14.93696372754914</v>
           </cell>
           <cell r="T6">
-            <v>9.2395217606385351</v>
+            <v>14.31798376937371</v>
           </cell>
           <cell r="U6">
-            <v>7.9886650035099969</v>
+            <v>12.379599163508555</v>
           </cell>
           <cell r="V6">
-            <v>6.611671430536564</v>
+            <v>10.245747202430108</v>
           </cell>
           <cell r="W6">
-            <v>6.9585476741100241</v>
+            <v>10.783282429266663</v>
           </cell>
           <cell r="X6">
-            <v>6.8639450622263531</v>
+            <v>10.636681912856695</v>
           </cell>
           <cell r="Y6">
-            <v>8.3986096550059059</v>
+            <v>13.014868067951758</v>
           </cell>
         </row>
       </sheetData>
@@ -14739,8 +14739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26060,7 +26060,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26148,99 +26148,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -26249,99 +26249,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -26350,99 +26350,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26451,99 +26451,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -26552,99 +26552,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -26653,99 +26653,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -26754,99 +26754,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -26855,99 +26855,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -26956,99 +26956,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -27057,99 +27057,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -27158,99 +27158,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -27259,99 +27259,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -27360,99 +27360,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -27461,99 +27461,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -27562,99 +27562,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>18.085917111893817</v>
+        <v>28.026760948332658</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>16.35784273481876</v>
+        <v>25.348858181910551</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>17.326993936560367</v>
+        <v>26.850699027799344</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>17.156709235169764</v>
+        <v>26.586818098261404</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>18.23307673037953</v>
+        <v>28.2548061960815</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>19.027738670202364</v>
+        <v>29.486250533925251</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>8.9557139249875242</v>
+        <v>13.878182220143803</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.312462227334148</v>
+        <v>8.2324334437331892</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.558475081387281</v>
+        <v>3.9647295215762925</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.4624555949423597</v>
+        <v>5.3655789006048922</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.3005800146080779</v>
+        <v>5.1147291280811658</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.0784237123182621</v>
+        <v>6.3201111518964739</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>4.6292211415076361</v>
+        <v>7.173651936327853</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>5.5058720116296538</v>
+        <v>8.5321500550602387</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>5.6887703946047505</v>
+        <v>8.8155777201195153</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.2935417049574145</v>
+        <v>8.203113340451198</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.2774549317031814</v>
+        <v>5.0788934462920627</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.2445038531807073</v>
+        <v>6.5774765029273086</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.374845229553765</v>
+        <v>6.7794594366477128</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>2.8170555538693156</v>
+        <v>4.3654375997635437</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>2.785521349908092</v>
+        <v>4.3165707609602206</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>5.7854752867525043</v>
+        <v>8.9654360257830383</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>11.808508243346225</v>
+        <v>18.299002237217781</v>
       </c>
     </row>
   </sheetData>
@@ -45087,99 +45087,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -45188,99 +45188,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -45289,99 +45289,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -45390,99 +45390,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -45491,99 +45491,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -45592,99 +45592,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -45693,99 +45693,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -45794,99 +45794,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -45895,99 +45895,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -45996,99 +45996,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -46097,99 +46097,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -46198,99 +46198,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -46299,99 +46299,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -46400,99 +46400,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -46501,99 +46501,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>8.9010546381214031</v>
+        <v>13.793479699551375</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>12.659931750299263</v>
+        <v>19.618406884907508</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>8.1736656667491765</v>
+        <v>12.666284617821386</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>8.3733822918369274</v>
+        <v>12.975774596909099</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>8.554178394547943</v>
+        <v>13.25594447271482</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>8.4448598208156991</v>
+        <v>13.086539431529966</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>11.425893235283379</v>
+        <v>17.706084593070788</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>10.332707497960957</v>
+        <v>16.012034181222251</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>8.943100243403034</v>
+        <v>13.858635484622473</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>8.4763940247769227</v>
+        <v>13.135406270333288</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>8.3439503681397831</v>
+        <v>12.930165547359332</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.1442337430520357</v>
+        <v>12.620675568271617</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>7.5261633454120513</v>
+        <v>11.662885527726482</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>6.8597405016981892</v>
+        <v>10.630166334349585</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>7.4252538927361353</v>
+        <v>11.50651164355585</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>8.3082116036503972</v>
+        <v>12.8747831300489</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.0349151693197918</v>
+        <v>12.451270527086763</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>7.5703112309577634</v>
+        <v>11.731299102051135</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>6.714683163476562</v>
+        <v>10.405378875854296</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>6.4035456843924878</v>
+        <v>9.9232260663281746</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>4.7805853205215083</v>
+        <v>7.4082127625838039</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>4.8688810916129359</v>
+        <v>7.5450399112331095</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>4.6859827086378383</v>
+        <v>7.2616122461738346</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>9.7756032279793388</v>
+        <v>15.148720029030207</v>
       </c>
     </row>
   </sheetData>
@@ -51312,7 +51312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764405B9-6B3C-4F8A-A775-FFC7ECA3AF01}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
